--- a/data/trans_orig/Predimed-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Predimed-Edad-trans_orig.xlsx
@@ -563,10 +563,10 @@
         <v>5.911575884272142</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>5.815700646003544</v>
+        <v>5.815700646003543</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5.865571221271362</v>
+        <v>5.865571221271363</v>
       </c>
     </row>
     <row r="5">
@@ -577,13 +577,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>5.574368323731948</v>
+        <v>5.564500676115266</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.491965169743281</v>
+        <v>5.471567661532523</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5.620351710652394</v>
+        <v>5.599036493964108</v>
       </c>
     </row>
     <row r="6">
@@ -594,13 +594,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>6.270095173629358</v>
+        <v>6.263921910116329</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.176041632463035</v>
+        <v>6.202479250061667</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6.112546168542378</v>
+        <v>6.108831352935202</v>
       </c>
     </row>
     <row r="7">
@@ -615,7 +615,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>6.059703970384673</v>
+        <v>6.059703970384671</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>6.217006666549699</v>
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.764054422589822</v>
+        <v>5.752715679562184</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>5.9985939155413</v>
+        <v>5.9894863891156</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5.960975748304653</v>
+        <v>5.939028313354282</v>
       </c>
     </row>
     <row r="9">
@@ -649,13 +649,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.364293594846473</v>
+        <v>6.348136913070182</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>6.431152012736092</v>
+        <v>6.458005584542079</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.317011541534381</v>
+        <v>6.331690580486244</v>
       </c>
     </row>
     <row r="10">
@@ -670,13 +670,13 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>6.293799328417698</v>
+        <v>6.293799328417697</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>6.280380768377271</v>
+        <v>6.28038076837727</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6.287061704436353</v>
+        <v>6.287061704436354</v>
       </c>
     </row>
     <row r="11">
@@ -687,13 +687,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>6.095642734501061</v>
+        <v>6.097059666474473</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>6.122425747718483</v>
+        <v>6.113103575151959</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6.154190890619682</v>
+        <v>6.158494909958641</v>
       </c>
     </row>
     <row r="12">
@@ -704,13 +704,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>6.511275154452683</v>
+        <v>6.512170967117492</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.464822761051881</v>
+        <v>6.434536475556497</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6.430193055807725</v>
+        <v>6.417060331970089</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>6.526502715514382</v>
+        <v>6.526502715514381</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>6.643461777782245</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>6.359527699943436</v>
+        <v>6.329533413556636</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>6.496793900510737</v>
+        <v>6.476805358319305</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>6.471612585367023</v>
+        <v>6.472382865601199</v>
       </c>
     </row>
     <row r="15">
@@ -759,13 +759,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>6.702614118186261</v>
+        <v>6.687858468298784</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.77902980516962</v>
+        <v>6.773584621257691</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6.700664960048806</v>
+        <v>6.702187906143648</v>
       </c>
     </row>
     <row r="16">
@@ -780,10 +780,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>6.510851403041161</v>
+        <v>6.510851403041159</v>
       </c>
       <c r="D16" s="5" t="n">
-        <v>6.612143069173439</v>
+        <v>6.612143069173437</v>
       </c>
       <c r="E16" s="5" t="n">
         <v>6.561964447953056</v>
@@ -797,13 +797,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>6.29761342656399</v>
+        <v>6.330212443158582</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.465227916121005</v>
+        <v>6.455818394841508</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6.445782937036451</v>
+        <v>6.439008099659487</v>
       </c>
     </row>
     <row r="18">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.682202942883774</v>
+        <v>6.70967167652874</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>6.7699214813844</v>
+        <v>6.76485738578755</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>6.674625520338691</v>
+        <v>6.679088299699301</v>
       </c>
     </row>
     <row r="19">
@@ -835,13 +835,13 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>6.734489115272381</v>
+        <v>6.734489115272379</v>
       </c>
       <c r="D19" s="5" t="n">
-        <v>6.76648439386828</v>
+        <v>6.766484393868279</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>6.751392286495609</v>
+        <v>6.75139228649561</v>
       </c>
     </row>
     <row r="20">
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>6.517069726275296</v>
+        <v>6.506666798052322</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>6.604336032023798</v>
+        <v>6.590179493694101</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>6.617321314160049</v>
+        <v>6.626903947097898</v>
       </c>
     </row>
     <row r="21">
@@ -869,13 +869,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>6.962943650784652</v>
+        <v>6.945677097541806</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>6.948126102213634</v>
+        <v>6.944562796647317</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6.894857899234743</v>
+        <v>6.899603214431846</v>
       </c>
     </row>
     <row r="22">
@@ -896,7 +896,7 @@
         <v>6.346870431551802</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>6.390507888860976</v>
+        <v>6.390507888860975</v>
       </c>
     </row>
     <row r="23">
@@ -907,13 +907,13 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.192126490823902</v>
+        <v>6.190595603964475</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>6.174366545038541</v>
+        <v>6.173096587270282</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>6.250043907163455</v>
+        <v>6.247275576609884</v>
       </c>
     </row>
     <row r="24">
@@ -924,13 +924,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>6.71154753587325</v>
+        <v>6.690467088049582</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>6.524142547294153</v>
+        <v>6.508411579577652</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>6.530467896859245</v>
+        <v>6.521510319351306</v>
       </c>
     </row>
     <row r="25">
@@ -951,7 +951,7 @@
         <v>6.422786031055798</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6.396894172096228</v>
+        <v>6.396894172096229</v>
       </c>
     </row>
     <row r="26">
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>6.278462830819583</v>
+        <v>6.272761690076704</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>6.34974816450548</v>
+        <v>6.355140244838434</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>6.337867073313646</v>
+        <v>6.337563815624526</v>
       </c>
     </row>
     <row r="27">
@@ -979,13 +979,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>6.467716736445988</v>
+        <v>6.459982137239424</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>6.491721878775881</v>
+        <v>6.493937532203584</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>6.458002250585348</v>
+        <v>6.456577537939424</v>
       </c>
     </row>
     <row r="28">
